--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.474639</v>
+      </c>
+      <c r="H2">
+        <v>4.423916999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.02436078515116209</v>
+      </c>
+      <c r="J2">
+        <v>0.02448628780347778</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.1148053333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.344416</v>
-      </c>
-      <c r="I2">
-        <v>0.001467477634511064</v>
-      </c>
-      <c r="J2">
-        <v>0.001475896741204689</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.138973</v>
+        <v>0.03356933333333333</v>
       </c>
       <c r="N2">
-        <v>0.416919</v>
+        <v>0.100708</v>
       </c>
       <c r="O2">
-        <v>0.008729058803286968</v>
+        <v>0.003575377454601638</v>
       </c>
       <c r="P2">
-        <v>0.0104128089745981</v>
+        <v>0.003738837375572874</v>
       </c>
       <c r="Q2">
-        <v>0.01595484158933333</v>
+        <v>0.04950264813733333</v>
       </c>
       <c r="R2">
-        <v>0.143593574304</v>
+        <v>0.445523833236</v>
       </c>
       <c r="S2">
-        <v>1.280969856415554E-05</v>
+        <v>8.709900200585928E-05</v>
       </c>
       <c r="T2">
-        <v>1.536823083239627E-05</v>
+        <v>9.155024802867693E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H3">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I3">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J3">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.048365333333333</v>
+        <v>8.048365333333335</v>
       </c>
       <c r="N3">
         <v>24.145096</v>
       </c>
       <c r="O3">
-        <v>0.5055273633367847</v>
+        <v>0.8572092770940959</v>
       </c>
       <c r="P3">
-        <v>0.603038653362722</v>
+        <v>0.8963993661039352</v>
       </c>
       <c r="Q3">
-        <v>0.9239952648817777</v>
+        <v>11.86843340678133</v>
       </c>
       <c r="R3">
-        <v>8.315957383936</v>
+        <v>106.815900661032</v>
       </c>
       <c r="S3">
-        <v>0.0007418500993300801</v>
+        <v>0.02088229102887224</v>
       </c>
       <c r="T3">
-        <v>0.0008900227833185053</v>
+        <v>0.021949492865276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H4">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I4">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J4">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.010251</v>
+        <v>0.06494266666666666</v>
       </c>
       <c r="N4">
-        <v>0.030753</v>
+        <v>0.194828</v>
       </c>
       <c r="O4">
-        <v>0.0006438774567181733</v>
+        <v>0.006916864983170432</v>
       </c>
       <c r="P4">
-        <v>0.0007680751282522873</v>
+        <v>0.007233091792192396</v>
       </c>
       <c r="Q4">
-        <v>0.001176869472</v>
+        <v>0.09576698903066665</v>
       </c>
       <c r="R4">
-        <v>0.010591825248</v>
+        <v>0.8619029012759999</v>
       </c>
       <c r="S4">
-        <v>9.448757670997851E-07</v>
+        <v>0.0001685002617746113</v>
       </c>
       <c r="T4">
-        <v>1.133599578787924E-06</v>
+        <v>0.0001771115673325959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H5">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I5">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J5">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.723141999999999</v>
+        <v>1.23145</v>
       </c>
       <c r="N5">
-        <v>15.446284</v>
+        <v>2.4629</v>
       </c>
       <c r="O5">
-        <v>0.4850997004032101</v>
+        <v>0.1311583558347655</v>
       </c>
       <c r="P5">
-        <v>0.3857804625344276</v>
+        <v>0.09143645561721445</v>
       </c>
       <c r="Q5">
-        <v>0.8866578916906666</v>
+        <v>1.81594419655</v>
       </c>
       <c r="R5">
-        <v>5.319947350143999</v>
+        <v>10.8956651793</v>
       </c>
       <c r="S5">
-        <v>0.0007118729608497287</v>
+        <v>0.003195120527270388</v>
       </c>
       <c r="T5">
-        <v>0.0005693721274749993</v>
+        <v>0.002238939367973035</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.097022333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="H6">
-        <v>3.291067</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="I6">
-        <v>0.01402248216162264</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="J6">
-        <v>0.01410293093348245</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.138973</v>
+        <v>0.01070466666666667</v>
       </c>
       <c r="N6">
-        <v>0.416919</v>
+        <v>0.032114</v>
       </c>
       <c r="O6">
-        <v>0.008729058803286968</v>
+        <v>0.001140124633366535</v>
       </c>
       <c r="P6">
-        <v>0.0104128089745981</v>
+        <v>0.001192249111084991</v>
       </c>
       <c r="Q6">
-        <v>0.1524564847303333</v>
+        <v>0.01578551894866666</v>
       </c>
       <c r="R6">
-        <v>1.372108362573</v>
+        <v>0.142069670538</v>
       </c>
       <c r="S6">
-        <v>0.0001224030713568466</v>
+        <v>2.77743312389896E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001468511257923032</v>
+        <v>2.919375486746764E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>3.291067</v>
       </c>
       <c r="I7">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J7">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.048365333333333</v>
+        <v>0.03356933333333333</v>
       </c>
       <c r="N7">
-        <v>24.145096</v>
+        <v>0.100708</v>
       </c>
       <c r="O7">
-        <v>0.5055273633367847</v>
+        <v>0.003575377454601638</v>
       </c>
       <c r="P7">
-        <v>0.603038653362722</v>
+        <v>0.003738837375572874</v>
       </c>
       <c r="Q7">
-        <v>8.829236517492443</v>
+        <v>0.03682630838177778</v>
       </c>
       <c r="R7">
-        <v>79.46312865743199</v>
+        <v>0.331436775436</v>
       </c>
       <c r="S7">
-        <v>0.007088748434602193</v>
+        <v>6.479521456537662E-05</v>
       </c>
       <c r="T7">
-        <v>0.008504612478594733</v>
+        <v>6.810661233675807E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.291067</v>
       </c>
       <c r="I8">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J8">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.010251</v>
+        <v>8.048365333333335</v>
       </c>
       <c r="N8">
-        <v>0.030753</v>
+        <v>24.145096</v>
       </c>
       <c r="O8">
-        <v>0.0006438774567181733</v>
+        <v>0.8572092770940959</v>
       </c>
       <c r="P8">
-        <v>0.0007680751282522873</v>
+        <v>0.8963993661039352</v>
       </c>
       <c r="Q8">
-        <v>0.011245575939</v>
+        <v>8.829236517492445</v>
       </c>
       <c r="R8">
-        <v>0.101210183451</v>
+        <v>79.46312865743201</v>
       </c>
       <c r="S8">
-        <v>9.028760151101541E-06</v>
+        <v>0.01553487981115321</v>
       </c>
       <c r="T8">
-        <v>1.083211048546768E-05</v>
+        <v>0.01632879903389808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>3.291067</v>
       </c>
       <c r="I9">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J9">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.723141999999999</v>
+        <v>0.06494266666666666</v>
       </c>
       <c r="N9">
-        <v>15.446284</v>
+        <v>0.194828</v>
       </c>
       <c r="O9">
-        <v>0.4850997004032101</v>
+        <v>0.006916864983170432</v>
       </c>
       <c r="P9">
-        <v>0.3857804625344276</v>
+        <v>0.007233091792192396</v>
       </c>
       <c r="Q9">
-        <v>8.472459257504665</v>
+        <v>0.07124355571955555</v>
       </c>
       <c r="R9">
-        <v>50.834755545028</v>
+        <v>0.641192001476</v>
       </c>
       <c r="S9">
-        <v>0.006802301895512502</v>
+        <v>0.0001253517303823251</v>
       </c>
       <c r="T9">
-        <v>0.005440635218609947</v>
+        <v>0.0001317579047180552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.088399</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H10">
-        <v>87.265197</v>
+        <v>3.291067</v>
       </c>
       <c r="I10">
-        <v>0.37181700289389</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J10">
-        <v>0.3739501645477712</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.138973</v>
+        <v>1.23145</v>
       </c>
       <c r="N10">
-        <v>0.416919</v>
+        <v>2.4629</v>
       </c>
       <c r="O10">
-        <v>0.008729058803286968</v>
+        <v>0.1311583558347655</v>
       </c>
       <c r="P10">
-        <v>0.0104128089745981</v>
+        <v>0.09143645561721445</v>
       </c>
       <c r="Q10">
-        <v>4.042502074226999</v>
+        <v>1.350928152383333</v>
       </c>
       <c r="R10">
-        <v>36.382518668043</v>
+        <v>8.105568914300001</v>
       </c>
       <c r="S10">
-        <v>0.003245612482322686</v>
+        <v>0.002376933321380617</v>
       </c>
       <c r="T10">
-        <v>0.003893871629455468</v>
+        <v>0.001665605269930904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.088399</v>
+        <v>1.097022333333333</v>
       </c>
       <c r="H11">
-        <v>87.265197</v>
+        <v>3.291067</v>
       </c>
       <c r="I11">
-        <v>0.37181700289389</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="J11">
-        <v>0.3739501645477712</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>8.048365333333333</v>
+        <v>0.01070466666666667</v>
       </c>
       <c r="N11">
-        <v>24.145096</v>
+        <v>0.032114</v>
       </c>
       <c r="O11">
-        <v>0.5055273633367847</v>
+        <v>0.001140124633366535</v>
       </c>
       <c r="P11">
-        <v>0.603038653362722</v>
+        <v>0.001192249111084991</v>
       </c>
       <c r="Q11">
-        <v>234.114062113768</v>
+        <v>0.01174325840422222</v>
       </c>
       <c r="R11">
-        <v>2107.026559023912</v>
+        <v>0.105689325638</v>
       </c>
       <c r="S11">
-        <v>0.1879636691167338</v>
+        <v>2.06620479063481E-05</v>
       </c>
       <c r="T11">
-        <v>0.2255064036536563</v>
+        <v>2.171799408768567E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H12">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I12">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J12">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.010251</v>
+        <v>0.03356933333333333</v>
       </c>
       <c r="N12">
-        <v>0.030753</v>
+        <v>0.100708</v>
       </c>
       <c r="O12">
-        <v>0.0006438774567181733</v>
+        <v>0.003575377454601638</v>
       </c>
       <c r="P12">
-        <v>0.0007680751282522873</v>
+        <v>0.003738837375572874</v>
       </c>
       <c r="Q12">
-        <v>0.2981851781489999</v>
+        <v>1.240238646870222</v>
       </c>
       <c r="R12">
-        <v>2.683666603340999</v>
+        <v>11.162147821832</v>
       </c>
       <c r="S12">
-        <v>0.0002394045861878916</v>
+        <v>0.002182177165387355</v>
       </c>
       <c r="T12">
-        <v>0.0002872218205949933</v>
+        <v>0.00229369862033882</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H13">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="I13">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J13">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.723141999999999</v>
+        <v>8.048365333333335</v>
       </c>
       <c r="N13">
-        <v>15.446284</v>
+        <v>24.145096</v>
       </c>
       <c r="O13">
-        <v>0.4850997004032101</v>
+        <v>0.8572092770940959</v>
       </c>
       <c r="P13">
-        <v>0.3857804625344276</v>
+        <v>0.8963993661039352</v>
       </c>
       <c r="Q13">
-        <v>224.653836029658</v>
+        <v>297.3515628509316</v>
       </c>
       <c r="R13">
-        <v>1347.923016177948</v>
+        <v>2676.164065658384</v>
       </c>
       <c r="S13">
-        <v>0.1803683167086455</v>
+        <v>0.5231846243325812</v>
       </c>
       <c r="T13">
-        <v>0.1442626674440645</v>
+        <v>0.5499222840603365</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.338819</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H14">
-        <v>2.677638</v>
+        <v>110.836754</v>
       </c>
       <c r="I14">
-        <v>0.01711320268940875</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J14">
-        <v>0.01147425554656532</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.138973</v>
+        <v>0.06494266666666666</v>
       </c>
       <c r="N14">
-        <v>0.416919</v>
+        <v>0.194828</v>
       </c>
       <c r="O14">
-        <v>0.008729058803286968</v>
+        <v>0.006916864983170432</v>
       </c>
       <c r="P14">
-        <v>0.0104128089745981</v>
+        <v>0.007233091792192396</v>
       </c>
       <c r="Q14">
-        <v>0.186059692887</v>
+        <v>2.399344789812444</v>
       </c>
       <c r="R14">
-        <v>1.116358157322</v>
+        <v>21.594103108312</v>
       </c>
       <c r="S14">
-        <v>0.0001493821525884177</v>
+        <v>0.004221603177285694</v>
       </c>
       <c r="T14">
-        <v>0.0001194792311321074</v>
+        <v>0.004437350705042018</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>36.94558466666667</v>
+      </c>
+      <c r="H15">
+        <v>110.836754</v>
+      </c>
+      <c r="I15">
+        <v>0.6103347669149772</v>
+      </c>
+      <c r="J15">
+        <v>0.6134791085925136</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.338819</v>
-      </c>
-      <c r="H15">
-        <v>2.677638</v>
-      </c>
-      <c r="I15">
-        <v>0.01711320268940875</v>
-      </c>
-      <c r="J15">
-        <v>0.01147425554656532</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.048365333333333</v>
+        <v>1.23145</v>
       </c>
       <c r="N15">
-        <v>24.145096</v>
+        <v>2.4629</v>
       </c>
       <c r="O15">
-        <v>0.5055273633367847</v>
+        <v>0.1311583558347655</v>
       </c>
       <c r="P15">
-        <v>0.603038653362722</v>
+        <v>0.09143645561721445</v>
       </c>
       <c r="Q15">
-        <v>10.775304427208</v>
+        <v>45.49664023776668</v>
       </c>
       <c r="R15">
-        <v>64.65182656324799</v>
+        <v>272.9798414266</v>
       </c>
       <c r="S15">
-        <v>0.008651192233824781</v>
+        <v>0.08005050453736323</v>
       </c>
       <c r="T15">
-        <v>0.006919419613140493</v>
+        <v>0.05609435528490766</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.338819</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="H16">
-        <v>2.677638</v>
+        <v>110.836754</v>
       </c>
       <c r="I16">
-        <v>0.01711320268940875</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="J16">
-        <v>0.01147425554656532</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.010251</v>
+        <v>0.01070466666666667</v>
       </c>
       <c r="N16">
-        <v>0.030753</v>
+        <v>0.032114</v>
       </c>
       <c r="O16">
-        <v>0.0006438774567181733</v>
+        <v>0.001140124633366535</v>
       </c>
       <c r="P16">
-        <v>0.0007680751282522873</v>
+        <v>0.001192249111084991</v>
       </c>
       <c r="Q16">
-        <v>0.013724233569</v>
+        <v>0.3954901686617778</v>
       </c>
       <c r="R16">
-        <v>0.08234540141399999</v>
+        <v>3.559411517956</v>
       </c>
       <c r="S16">
-        <v>1.101880542395911E-05</v>
+        <v>0.000695857702359788</v>
       </c>
       <c r="T16">
-        <v>8.813090300527676E-06</v>
+        <v>0.000731419921888637</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="H17">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="I17">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J17">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>7.723141999999999</v>
+        <v>0.03356933333333333</v>
       </c>
       <c r="N17">
-        <v>15.446284</v>
+        <v>0.100708</v>
       </c>
       <c r="O17">
-        <v>0.4850997004032101</v>
+        <v>0.003575377454601638</v>
       </c>
       <c r="P17">
-        <v>0.3857804625344276</v>
+        <v>0.003738837375572874</v>
       </c>
       <c r="Q17">
-        <v>10.339889249298</v>
+        <v>0.031245563372</v>
       </c>
       <c r="R17">
-        <v>41.35955699719199</v>
+        <v>0.187473380232</v>
       </c>
       <c r="S17">
-        <v>0.008301609497571595</v>
+        <v>5.497599601665742E-05</v>
       </c>
       <c r="T17">
-        <v>0.00442654361199219</v>
+        <v>3.852371787688957E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.59406033333332</v>
+        <v>0.930777</v>
       </c>
       <c r="H18">
-        <v>139.782181</v>
+        <v>1.861554</v>
       </c>
       <c r="I18">
-        <v>0.5955798346205675</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J18">
-        <v>0.5989967522309763</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.138973</v>
+        <v>8.048365333333335</v>
       </c>
       <c r="N18">
-        <v>0.416919</v>
+        <v>24.145096</v>
       </c>
       <c r="O18">
-        <v>0.008729058803286968</v>
+        <v>0.8572092770940959</v>
       </c>
       <c r="P18">
-        <v>0.0104128089745981</v>
+        <v>0.8963993661039352</v>
       </c>
       <c r="Q18">
-        <v>6.475316346704331</v>
+        <v>7.491233339864001</v>
       </c>
       <c r="R18">
-        <v>58.27784712033899</v>
+        <v>44.947400039184</v>
       </c>
       <c r="S18">
-        <v>0.005198851398454861</v>
+        <v>0.01318068774593688</v>
       </c>
       <c r="T18">
-        <v>0.006237238757385823</v>
+        <v>0.009236196393676918</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.59406033333332</v>
+        <v>0.930777</v>
       </c>
       <c r="H19">
-        <v>139.782181</v>
+        <v>1.861554</v>
       </c>
       <c r="I19">
-        <v>0.5955798346205675</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J19">
-        <v>0.5989967522309763</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.048365333333333</v>
+        <v>0.06494266666666666</v>
       </c>
       <c r="N19">
-        <v>24.145096</v>
+        <v>0.194828</v>
       </c>
       <c r="O19">
-        <v>0.5055273633367847</v>
+        <v>0.006916864983170432</v>
       </c>
       <c r="P19">
-        <v>0.603038653362722</v>
+        <v>0.007233091792192396</v>
       </c>
       <c r="Q19">
-        <v>375.0060199260417</v>
+        <v>0.060447140452</v>
       </c>
       <c r="R19">
-        <v>3375.054179334375</v>
+        <v>0.362682842712</v>
       </c>
       <c r="S19">
-        <v>0.3010819034522938</v>
+        <v>0.0001063556356191497</v>
       </c>
       <c r="T19">
-        <v>0.361218194834012</v>
+        <v>7.452733552963659E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,117 +1647,427 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.59406033333332</v>
+        <v>0.930777</v>
       </c>
       <c r="H20">
-        <v>139.782181</v>
+        <v>1.861554</v>
       </c>
       <c r="I20">
-        <v>0.5955798346205675</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="J20">
-        <v>0.5989967522309763</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.010251</v>
+        <v>1.23145</v>
       </c>
       <c r="N20">
-        <v>0.030753</v>
+        <v>2.4629</v>
       </c>
       <c r="O20">
-        <v>0.0006438774567181733</v>
+        <v>0.1311583558347655</v>
       </c>
       <c r="P20">
-        <v>0.0007680751282522873</v>
+        <v>0.09143645561721445</v>
       </c>
       <c r="Q20">
-        <v>0.4776357124769998</v>
+        <v>1.14620533665</v>
       </c>
       <c r="R20">
-        <v>4.298721412292998</v>
+        <v>4.5848213466</v>
       </c>
       <c r="S20">
-        <v>0.0003834804291881213</v>
+        <v>0.0020167272797011</v>
       </c>
       <c r="T20">
-        <v>0.0004600745072925106</v>
+        <v>0.0009421303646084852</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.930777</v>
+      </c>
+      <c r="H21">
+        <v>1.861554</v>
+      </c>
+      <c r="I21">
+        <v>0.01537627753005528</v>
+      </c>
+      <c r="J21">
+        <v>0.01030366234396244</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01070466666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.032114</v>
+      </c>
+      <c r="O21">
+        <v>0.001140124633366535</v>
+      </c>
+      <c r="P21">
+        <v>0.001192249111084991</v>
+      </c>
+      <c r="Q21">
+        <v>0.009963657526</v>
+      </c>
+      <c r="R21">
+        <v>0.05978194515599999</v>
+      </c>
+      <c r="S21">
+        <v>1.753087278149637E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.228453227050911E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>20.08528866666667</v>
+      </c>
+      <c r="H22">
+        <v>60.255866</v>
+      </c>
+      <c r="I22">
+        <v>0.3318055482784176</v>
+      </c>
+      <c r="J22">
+        <v>0.3335149544450747</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.03356933333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.100708</v>
+      </c>
+      <c r="O22">
+        <v>0.003575377454601638</v>
+      </c>
+      <c r="P22">
+        <v>0.003738837375572874</v>
+      </c>
+      <c r="Q22">
+        <v>0.6742497503475555</v>
+      </c>
+      <c r="R22">
+        <v>6.068247753128</v>
+      </c>
+      <c r="S22">
+        <v>0.00118633007662639</v>
+      </c>
+      <c r="T22">
+        <v>0.00124695817699173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>20.08528866666667</v>
+      </c>
+      <c r="H23">
+        <v>60.255866</v>
+      </c>
+      <c r="I23">
+        <v>0.3318055482784176</v>
+      </c>
+      <c r="J23">
+        <v>0.3335149544450747</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.048365333333335</v>
+      </c>
+      <c r="N23">
+        <v>24.145096</v>
+      </c>
+      <c r="O23">
+        <v>0.8572092770940959</v>
+      </c>
+      <c r="P23">
+        <v>0.8963993661039352</v>
+      </c>
+      <c r="Q23">
+        <v>161.6537410147929</v>
+      </c>
+      <c r="R23">
+        <v>1454.883669133136</v>
+      </c>
+      <c r="S23">
+        <v>0.2844267941755525</v>
+      </c>
+      <c r="T23">
+        <v>0.2989625937507478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20.08528866666667</v>
+      </c>
+      <c r="H24">
+        <v>60.255866</v>
+      </c>
+      <c r="I24">
+        <v>0.3318055482784176</v>
+      </c>
+      <c r="J24">
+        <v>0.3335149544450747</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.06494266666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.194828</v>
+      </c>
+      <c r="O24">
+        <v>0.006916864983170432</v>
+      </c>
+      <c r="P24">
+        <v>0.007233091792192396</v>
+      </c>
+      <c r="Q24">
+        <v>1.304392206783111</v>
+      </c>
+      <c r="R24">
+        <v>11.739529861048</v>
+      </c>
+      <c r="S24">
+        <v>0.002295054178108653</v>
+      </c>
+      <c r="T24">
+        <v>0.00241234427957009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>46.59406033333332</v>
-      </c>
-      <c r="H21">
-        <v>139.782181</v>
-      </c>
-      <c r="I21">
-        <v>0.5955798346205675</v>
-      </c>
-      <c r="J21">
-        <v>0.5989967522309763</v>
-      </c>
-      <c r="K21">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>20.08528866666667</v>
+      </c>
+      <c r="H25">
+        <v>60.255866</v>
+      </c>
+      <c r="I25">
+        <v>0.3318055482784176</v>
+      </c>
+      <c r="J25">
+        <v>0.3335149544450747</v>
+      </c>
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>7.723141999999999</v>
-      </c>
-      <c r="N21">
-        <v>15.446284</v>
-      </c>
-      <c r="O21">
-        <v>0.4850997004032101</v>
-      </c>
-      <c r="P21">
-        <v>0.3857804625344276</v>
-      </c>
-      <c r="Q21">
-        <v>359.8525443109006</v>
-      </c>
-      <c r="R21">
-        <v>2159.115265865404</v>
-      </c>
-      <c r="S21">
-        <v>0.2889155993406307</v>
-      </c>
-      <c r="T21">
-        <v>0.231081244132286</v>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.23145</v>
+      </c>
+      <c r="N25">
+        <v>2.4629</v>
+      </c>
+      <c r="O25">
+        <v>0.1311583558347655</v>
+      </c>
+      <c r="P25">
+        <v>0.09143645561721445</v>
+      </c>
+      <c r="Q25">
+        <v>24.73402872856667</v>
+      </c>
+      <c r="R25">
+        <v>148.4041723714</v>
+      </c>
+      <c r="S25">
+        <v>0.04351907016905016</v>
+      </c>
+      <c r="T25">
+        <v>0.03049542532979437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>20.08528866666667</v>
+      </c>
+      <c r="H26">
+        <v>60.255866</v>
+      </c>
+      <c r="I26">
+        <v>0.3318055482784176</v>
+      </c>
+      <c r="J26">
+        <v>0.3335149544450747</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01070466666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.032114</v>
+      </c>
+      <c r="O26">
+        <v>0.001140124633366535</v>
+      </c>
+      <c r="P26">
+        <v>0.001192249111084991</v>
+      </c>
+      <c r="Q26">
+        <v>0.2150063200804444</v>
+      </c>
+      <c r="R26">
+        <v>1.935056880724</v>
+      </c>
+      <c r="S26">
+        <v>0.000378299679079913</v>
+      </c>
+      <c r="T26">
+        <v>0.0003976329079706915</v>
       </c>
     </row>
   </sheetData>
